--- a/data/trans_orig/P23-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>349218</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>319606</v>
+        <v>321244</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>376014</v>
+        <v>380727</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3388222595989474</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3100916629064472</v>
+        <v>0.3116808223021589</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3648212722278656</v>
+        <v>0.3693934641562985</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1069</v>
@@ -764,19 +764,19 @@
         <v>1087104</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1057685</v>
+        <v>1056626</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1113443</v>
+        <v>1112038</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8266238808393902</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8042543824622453</v>
+        <v>0.8034484771610175</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8466521522041296</v>
+        <v>0.8455837258144878</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1426</v>
@@ -785,19 +785,19 @@
         <v>1436321</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1387178</v>
+        <v>1389275</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1475458</v>
+        <v>1486190</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6122965268873881</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5913470037042593</v>
+        <v>0.5922412908674771</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6289804896102048</v>
+        <v>0.6335556671658787</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>306864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>278865</v>
+        <v>277085</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>336716</v>
+        <v>335479</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2977292557949062</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2705637286357809</v>
+        <v>0.2688370423782433</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.326692738542014</v>
+        <v>0.3254921068761318</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -835,19 +835,19 @@
         <v>51468</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39955</v>
+        <v>39459</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67416</v>
+        <v>67116</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03913586251851857</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03038167186618821</v>
+        <v>0.03000444254497805</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05126252246420283</v>
+        <v>0.05103411370464458</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>364</v>
@@ -856,19 +856,19 @@
         <v>358332</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>327904</v>
+        <v>325451</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>390965</v>
+        <v>395296</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1527550784396537</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1397837943027268</v>
+        <v>0.1387382442952654</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1666664971056196</v>
+        <v>0.1685126285378716</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>17584</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11102</v>
+        <v>10730</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27998</v>
+        <v>26281</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01706054486643884</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01077123450909652</v>
+        <v>0.01041026717653959</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02716415511652431</v>
+        <v>0.02549872675720155</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -906,19 +906,19 @@
         <v>8424</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4182</v>
+        <v>3801</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15921</v>
+        <v>16038</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006405206599442894</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003179878794975497</v>
+        <v>0.002890294777125486</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01210593446978224</v>
+        <v>0.01219548542413683</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -927,19 +927,19 @@
         <v>26008</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16987</v>
+        <v>16660</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38131</v>
+        <v>38376</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01108688529173875</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007241651537316915</v>
+        <v>0.007102232906322567</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01625493270939495</v>
+        <v>0.01635938388349405</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>357015</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>324345</v>
+        <v>327545</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>387755</v>
+        <v>387553</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3463879397397075</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3146897802143532</v>
+        <v>0.3177950359408918</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3762125522145666</v>
+        <v>0.376016199110182</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>163</v>
@@ -977,19 +977,19 @@
         <v>168118</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>143307</v>
+        <v>145916</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>193963</v>
+        <v>192971</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1278350500426483</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1089694417830335</v>
+        <v>0.1109529905942698</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1474878443860569</v>
+        <v>0.1467332992164362</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>511</v>
@@ -998,19 +998,19 @@
         <v>525133</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>488158</v>
+        <v>484752</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>567758</v>
+        <v>566896</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2238615093812195</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2080994119798483</v>
+        <v>0.2066472924284795</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2420323609038048</v>
+        <v>0.241665170866644</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>637352</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>591037</v>
+        <v>595316</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>674404</v>
+        <v>679546</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3763714935298153</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3490212173882625</v>
+        <v>0.351548143517573</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.398251457120209</v>
+        <v>0.4012877953252334</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>865</v>
@@ -1123,19 +1123,19 @@
         <v>886102</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>849493</v>
+        <v>844713</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>928990</v>
+        <v>923765</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.558113949357079</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5350554117387561</v>
+        <v>0.5320446981685631</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5851270571344206</v>
+        <v>0.5818355297078692</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1483</v>
@@ -1144,19 +1144,19 @@
         <v>1523455</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1465812</v>
+        <v>1461631</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1579671</v>
+        <v>1578775</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4643142155187974</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4467460697864037</v>
+        <v>0.4454717614434188</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4814476261043144</v>
+        <v>0.4811746631921538</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>238254</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>210947</v>
+        <v>209691</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>269086</v>
+        <v>265805</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.140694569769391</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1245694239317666</v>
+        <v>0.123827477300806</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1589016051742716</v>
+        <v>0.1569637951192616</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>149</v>
@@ -1194,19 +1194,19 @@
         <v>153515</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>129516</v>
+        <v>130439</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>177379</v>
+        <v>177099</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09669187197658077</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08157583158180993</v>
+        <v>0.08215716573049212</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1117228516861357</v>
+        <v>0.1115459706135172</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>382</v>
@@ -1215,19 +1215,19 @@
         <v>391769</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>356208</v>
+        <v>355949</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>431872</v>
+        <v>430315</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1194022580685067</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1085641715235424</v>
+        <v>0.108485178585964</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1316246873805118</v>
+        <v>0.1311501821167371</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>48777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37187</v>
+        <v>37069</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>64226</v>
+        <v>62809</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02880406578753228</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02195977762191607</v>
+        <v>0.02189021452331819</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03792718510401217</v>
+        <v>0.03709047890179906</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>52</v>
@@ -1265,19 +1265,19 @@
         <v>50281</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38672</v>
+        <v>37976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>65125</v>
+        <v>65308</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03166953712298617</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02435778757709282</v>
+        <v>0.02391909920077083</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0410193269327099</v>
+        <v>0.0411342878094027</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>100</v>
@@ -1286,19 +1286,19 @@
         <v>99058</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>80976</v>
+        <v>79651</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>119277</v>
+        <v>119715</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03019062870082717</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02467974727875749</v>
+        <v>0.0242759388683302</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03635296257776403</v>
+        <v>0.03648650030154002</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>769029</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>728960</v>
+        <v>729916</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>813751</v>
+        <v>814038</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4541298709132614</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4304679763586659</v>
+        <v>0.4310324481403362</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4805392599615219</v>
+        <v>0.4807085522980223</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>488</v>
@@ -1336,19 +1336,19 @@
         <v>497775</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>460132</v>
+        <v>460075</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>534732</v>
+        <v>537739</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.313524641543354</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2898156449902055</v>
+        <v>0.2897791741799526</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3368022118920858</v>
+        <v>0.3386965052018765</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1238</v>
@@ -1357,19 +1357,19 @@
         <v>1266804</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1217314</v>
+        <v>1213792</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1321680</v>
+        <v>1320736</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3860928977118688</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3710093827747527</v>
+        <v>0.3699360965964444</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4028178818384436</v>
+        <v>0.4025300225989203</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>274097</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>248284</v>
+        <v>251148</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>297956</v>
+        <v>299941</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4970860667077205</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4502728192356364</v>
+        <v>0.4554666956352327</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5403556955138004</v>
+        <v>0.54395434867579</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>270</v>
@@ -1482,19 +1482,19 @@
         <v>286318</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>264534</v>
+        <v>265758</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>305851</v>
+        <v>307736</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6009876659296642</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5552630650489696</v>
+        <v>0.5578324762299389</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6419894106135454</v>
+        <v>0.6459448515131651</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>533</v>
@@ -1503,19 +1503,19 @@
         <v>560415</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>528057</v>
+        <v>529323</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>592740</v>
+        <v>591863</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5452462032432083</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5137638069118495</v>
+        <v>0.5149954981074842</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5766967739662876</v>
+        <v>0.5758428719934998</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>84435</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>67381</v>
+        <v>66412</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>102550</v>
+        <v>101953</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1531264610742327</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1221984431534399</v>
+        <v>0.1204406780080412</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1859785799554403</v>
+        <v>0.1848952918276784</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>49</v>
@@ -1553,19 +1553,19 @@
         <v>51361</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>39596</v>
+        <v>39668</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>66940</v>
+        <v>66293</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1078070939802735</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08311388805111594</v>
+        <v>0.08326404454022095</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1405082194067908</v>
+        <v>0.1391498911954068</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>128</v>
@@ -1574,19 +1574,19 @@
         <v>135796</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>113527</v>
+        <v>113644</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>158254</v>
+        <v>160152</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1321201731701866</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1104541965489888</v>
+        <v>0.1105675591712376</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1539702131624567</v>
+        <v>0.1558171141296036</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>18676</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11209</v>
+        <v>11434</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28647</v>
+        <v>28864</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03386923652534764</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0203276674127423</v>
+        <v>0.02073537266992402</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05195242460063076</v>
+        <v>0.05234615147666896</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1624,19 +1624,19 @@
         <v>25814</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16213</v>
+        <v>17245</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36597</v>
+        <v>36929</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05418470471099896</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03403140256440099</v>
+        <v>0.03619734494470828</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0768178222896346</v>
+        <v>0.07751379223890255</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -1645,19 +1645,19 @@
         <v>44490</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32229</v>
+        <v>32737</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59190</v>
+        <v>58749</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04328579728023437</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03135707357877516</v>
+        <v>0.03185088325229341</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05758741816784581</v>
+        <v>0.05715852047571347</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>174200</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>153164</v>
+        <v>153903</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198325</v>
+        <v>196747</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3159182356926992</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2777689107406302</v>
+        <v>0.2791098001157581</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3596699989004062</v>
+        <v>0.3568078762495316</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -1695,19 +1695,19 @@
         <v>112919</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>95705</v>
+        <v>95095</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>133430</v>
+        <v>131828</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2370205353790633</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2008872910418822</v>
+        <v>0.1996074569254131</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2800734760899757</v>
+        <v>0.2767102857989861</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>276</v>
@@ -1716,19 +1716,19 @@
         <v>287119</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>258845</v>
+        <v>258528</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>317547</v>
+        <v>316510</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2793478263063708</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.251839229052331</v>
+        <v>0.2515306075755624</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3089515697928006</v>
+        <v>0.3079431586763666</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>1260667</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1202026</v>
+        <v>1206566</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1319433</v>
+        <v>1313169</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3848775836841052</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.366974616693338</v>
+        <v>0.3683608531573612</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4028186636774286</v>
+        <v>0.4009062984391998</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2204</v>
@@ -1841,19 +1841,19 @@
         <v>2259523</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2204173</v>
+        <v>2202203</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2314677</v>
+        <v>2317479</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6686568692120715</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6522772763982524</v>
+        <v>0.6516942246115297</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6849785522664467</v>
+        <v>0.6858075479348056</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3442</v>
@@ -1862,19 +1862,19 @@
         <v>3520190</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3439826</v>
+        <v>3430132</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3601975</v>
+        <v>3597944</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5289782096862725</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5169018545466164</v>
+        <v>0.5154451572413167</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5412679309033197</v>
+        <v>0.5406622185011146</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>629553</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>583816</v>
+        <v>584040</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>678145</v>
+        <v>678617</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.192200473163617</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1782372219741326</v>
+        <v>0.1783055188693108</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2070355206324819</v>
+        <v>0.20717964404558</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>248</v>
@@ -1912,19 +1912,19 @@
         <v>256344</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>228174</v>
+        <v>226441</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>287151</v>
+        <v>287914</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07585934664153964</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06752307648619946</v>
+        <v>0.06701028631251017</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08497610494943864</v>
+        <v>0.08520192198835411</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>874</v>
@@ -1933,19 +1933,19 @@
         <v>885897</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>828148</v>
+        <v>828244</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>945100</v>
+        <v>937279</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1331234720694813</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1244456136212019</v>
+        <v>0.1244600030404251</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1420198992640552</v>
+        <v>0.1408446444643675</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>85037</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>68635</v>
+        <v>68576</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>104211</v>
+        <v>105855</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02596149507310007</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02095411720060488</v>
+        <v>0.02093609705348565</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03181543208752086</v>
+        <v>0.03231726340663656</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>85</v>
@@ -1983,19 +1983,19 @@
         <v>84519</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>67147</v>
+        <v>67781</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>103755</v>
+        <v>103209</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02501146116825536</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01987083731027446</v>
+        <v>0.02005832963801561</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03070395022692473</v>
+        <v>0.0305425005472249</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>169</v>
@@ -2004,19 +2004,19 @@
         <v>169556</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>146280</v>
+        <v>144982</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>196126</v>
+        <v>198319</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02547907620959245</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02198149849235814</v>
+        <v>0.02178641612007074</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0294718214586715</v>
+        <v>0.02980131386434762</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>1300244</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1241488</v>
+        <v>1246851</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1358712</v>
+        <v>1355781</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3969604480791778</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3790222814535405</v>
+        <v>0.3806596136529921</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4148104301233219</v>
+        <v>0.4139157013789906</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>760</v>
@@ -2054,19 +2054,19 @@
         <v>778811</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>730738</v>
+        <v>722976</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>827496</v>
+        <v>829703</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2304723229781336</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2162460898598537</v>
+        <v>0.2139491491364316</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2448793459129633</v>
+        <v>0.2455325604235083</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2025</v>
@@ -2075,19 +2075,19 @@
         <v>2079056</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2003973</v>
+        <v>2012668</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2162508</v>
+        <v>2157230</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3124192420346537</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.301136588407026</v>
+        <v>0.3024431126145671</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3249596318384336</v>
+        <v>0.3241665405739393</v>
       </c>
     </row>
     <row r="23">
@@ -2418,19 +2418,19 @@
         <v>250178</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>222669</v>
+        <v>222161</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>278579</v>
+        <v>279757</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2566871751519834</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2284616859511839</v>
+        <v>0.227940532955931</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2858271452017112</v>
+        <v>0.2870352765566562</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>994</v>
@@ -2439,19 +2439,19 @@
         <v>1066556</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1037973</v>
+        <v>1032799</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1096656</v>
+        <v>1095974</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7972476665600102</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7758821756861954</v>
+        <v>0.7720145130013608</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8197477610695681</v>
+        <v>0.8192379271596915</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1224</v>
@@ -2460,19 +2460,19 @@
         <v>1316734</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1265522</v>
+        <v>1267731</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1364386</v>
+        <v>1364795</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5694131689458956</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5472670327180585</v>
+        <v>0.5482220111468808</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5900198997673796</v>
+        <v>0.5901969219358764</v>
       </c>
     </row>
     <row r="5">
@@ -2489,19 +2489,19 @@
         <v>389459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>356773</v>
+        <v>357236</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>421424</v>
+        <v>421698</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3995917577196646</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.366055086999506</v>
+        <v>0.3665304413088688</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.432387767901779</v>
+        <v>0.4326691365033431</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -2510,19 +2510,19 @@
         <v>71204</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56658</v>
+        <v>55429</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>89650</v>
+        <v>90277</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05322516509086809</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04235161827302159</v>
+        <v>0.04143289854209339</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06701310258729161</v>
+        <v>0.06748212940631046</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>427</v>
@@ -2531,19 +2531,19 @@
         <v>460664</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>422998</v>
+        <v>421281</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>499572</v>
+        <v>504474</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1992111553291527</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1829229868031466</v>
+        <v>0.1821804800614725</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2160368917216066</v>
+        <v>0.2181566692247326</v>
       </c>
     </row>
     <row r="6">
@@ -2560,19 +2560,19 @@
         <v>17965</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10946</v>
+        <v>9746</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29120</v>
+        <v>28684</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01843218901553599</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01123112088071688</v>
+        <v>0.009999730225621631</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02987733930561025</v>
+        <v>0.02942979799360236</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -2581,19 +2581,19 @@
         <v>8341</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4120</v>
+        <v>3258</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16660</v>
+        <v>15809</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006235135128061744</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003079960467987366</v>
+        <v>0.002435119976505909</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01245350086797909</v>
+        <v>0.01181721181270411</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -2602,19 +2602,19 @@
         <v>26306</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16138</v>
+        <v>16693</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39948</v>
+        <v>40142</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01137592822891638</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006978900230205704</v>
+        <v>0.007218785985733102</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01727538258608713</v>
+        <v>0.01735903437373566</v>
       </c>
     </row>
     <row r="7">
@@ -2631,19 +2631,19 @@
         <v>317041</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>286119</v>
+        <v>285021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>345683</v>
+        <v>347929</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.325288878112816</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2935628869833417</v>
+        <v>0.2924361533104278</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3546770316021933</v>
+        <v>0.3569812120670815</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>178</v>
@@ -2652,19 +2652,19 @@
         <v>191696</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>165702</v>
+        <v>167832</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>216174</v>
+        <v>220029</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.14329203322106</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1238616900940953</v>
+        <v>0.1254541125586015</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1615898897995366</v>
+        <v>0.1644714640562919</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>480</v>
@@ -2673,19 +2673,19 @@
         <v>508736</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>467216</v>
+        <v>468187</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>550089</v>
+        <v>551784</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2199997474960353</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2020444063568812</v>
+        <v>0.2024646263375333</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2378823622771913</v>
+        <v>0.2386153467235861</v>
       </c>
     </row>
     <row r="8">
@@ -2777,19 +2777,19 @@
         <v>754826</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>708547</v>
+        <v>708386</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>796913</v>
+        <v>793528</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3845407758582663</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3609642608973946</v>
+        <v>0.3608823404040795</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4059820062856896</v>
+        <v>0.4042573170710198</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>825</v>
@@ -2798,19 +2798,19 @@
         <v>875848</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>836084</v>
+        <v>834174</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>917095</v>
+        <v>923723</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4988255075328373</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4761785816184649</v>
+        <v>0.4750906754637677</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5223171557634352</v>
+        <v>0.5260915843246756</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1549</v>
@@ -2819,19 +2819,19 @@
         <v>1630674</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1568641</v>
+        <v>1567718</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1694242</v>
+        <v>1693881</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4385007287679396</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.421819612651068</v>
+        <v>0.4215715413135595</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4555947566072641</v>
+        <v>0.455497575907801</v>
       </c>
     </row>
     <row r="10">
@@ -2848,19 +2848,19 @@
         <v>353117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>318131</v>
+        <v>318707</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>389556</v>
+        <v>390940</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1798927775850324</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1620695536983459</v>
+        <v>0.1623628754306009</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1984565634608548</v>
+        <v>0.1991617299666363</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>223</v>
@@ -2869,19 +2869,19 @@
         <v>243162</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>214483</v>
+        <v>211726</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>272659</v>
+        <v>272914</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1384887777929208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1221551292207082</v>
+        <v>0.1205852322655955</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1552887148200614</v>
+        <v>0.1554340881954004</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>552</v>
@@ -2890,19 +2890,19 @@
         <v>596278</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>552323</v>
+        <v>555136</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>643922</v>
+        <v>647999</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1603437280635592</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1485240011492907</v>
+        <v>0.149280400269411</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1731555383736763</v>
+        <v>0.1742517966599502</v>
       </c>
     </row>
     <row r="11">
@@ -2919,19 +2919,19 @@
         <v>57599</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43891</v>
+        <v>42630</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75125</v>
+        <v>74901</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02934363321817418</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02236010624778252</v>
+        <v>0.02171736124155788</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03827169153156961</v>
+        <v>0.03815788172959034</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>43</v>
@@ -2940,19 +2940,19 @@
         <v>48268</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35375</v>
+        <v>33937</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>64664</v>
+        <v>64346</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02749003904682626</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02014723489540956</v>
+        <v>0.01932849804445731</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03682863675118721</v>
+        <v>0.03664727363506702</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>99</v>
@@ -2961,19 +2961,19 @@
         <v>105867</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>85788</v>
+        <v>88424</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>128339</v>
+        <v>131115</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02846845196925295</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0230690759882333</v>
+        <v>0.02377791516650773</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03451135048237478</v>
+        <v>0.03525771126479296</v>
       </c>
     </row>
     <row r="12">
@@ -2990,19 +2990,19 @@
         <v>797386</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>753438</v>
+        <v>753804</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>843305</v>
+        <v>841876</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4062228133385271</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3838338021136756</v>
+        <v>0.3840199870835792</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4296157256748169</v>
+        <v>0.4288878181065565</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>542</v>
@@ -3011,19 +3011,19 @@
         <v>588544</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>546312</v>
+        <v>549643</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>629881</v>
+        <v>629941</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3351956756274156</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.311143606064956</v>
+        <v>0.3130401928422322</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3587386101586363</v>
+        <v>0.3587729332491175</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1288</v>
@@ -3032,19 +3032,19 @@
         <v>1385929</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1322335</v>
+        <v>1329302</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1446254</v>
+        <v>1450591</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3726870911992483</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.355586005698107</v>
+        <v>0.3574595170976659</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3889087699471396</v>
+        <v>0.3900750055830421</v>
       </c>
     </row>
     <row r="13">
@@ -3136,19 +3136,19 @@
         <v>223482</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>200812</v>
+        <v>200424</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>248860</v>
+        <v>248491</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4644456097259209</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4173307845835101</v>
+        <v>0.416525436655313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5171849799191823</v>
+        <v>0.5164197930817942</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>215</v>
@@ -3157,19 +3157,19 @@
         <v>240354</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>219514</v>
+        <v>217911</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>264251</v>
+        <v>262469</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5240687015053099</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4786277738856465</v>
+        <v>0.4751331266507173</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5761745159429807</v>
+        <v>0.5722885221235995</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>419</v>
@@ -3178,19 +3178,19 @@
         <v>463837</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>429416</v>
+        <v>428423</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>495310</v>
+        <v>495920</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4935418418942138</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4569160760333636</v>
+        <v>0.4558599393657479</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5270301165456055</v>
+        <v>0.5276795789151263</v>
       </c>
     </row>
     <row r="15">
@@ -3207,19 +3207,19 @@
         <v>96263</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>78947</v>
+        <v>78842</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>117461</v>
+        <v>115642</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2000552157104067</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1640686519374021</v>
+        <v>0.1638504826358706</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2441099835827548</v>
+        <v>0.2403305405835105</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>70</v>
@@ -3228,19 +3228,19 @@
         <v>78855</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>63535</v>
+        <v>62185</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>97448</v>
+        <v>97968</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1719354136026554</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1385324088449519</v>
+        <v>0.1355878052307363</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2124754925853748</v>
+        <v>0.2136101116132116</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>158</v>
@@ -3249,19 +3249,19 @@
         <v>175118</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>151795</v>
+        <v>149599</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>204214</v>
+        <v>202590</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1863326752275863</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1615166343528502</v>
+        <v>0.1591797121567334</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2172924931874281</v>
+        <v>0.2155637540253408</v>
       </c>
     </row>
     <row r="16">
@@ -3278,19 +3278,19 @@
         <v>19442</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11273</v>
+        <v>11622</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31626</v>
+        <v>31834</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04040519825356417</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02342762881541137</v>
+        <v>0.02415224419455127</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06572596701077575</v>
+        <v>0.06615832033333711</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -3299,19 +3299,19 @@
         <v>17251</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10069</v>
+        <v>9995</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27369</v>
+        <v>26374</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03761342375229716</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02195385479827418</v>
+        <v>0.02179287101847092</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05967636895886578</v>
+        <v>0.05750693206559733</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -3320,19 +3320,19 @@
         <v>36693</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25325</v>
+        <v>25235</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51353</v>
+        <v>52725</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03904280464689003</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02694701487697608</v>
+        <v>0.02685113606353532</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05464148677771576</v>
+        <v>0.05610138398197221</v>
       </c>
     </row>
     <row r="17">
@@ -3349,19 +3349,19 @@
         <v>141994</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>120517</v>
+        <v>119563</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>163513</v>
+        <v>166030</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2950939763101082</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2504607988574041</v>
+        <v>0.2484772138452846</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3398150727094432</v>
+        <v>0.3450459458428488</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>111</v>
@@ -3370,19 +3370,19 @@
         <v>122171</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>101628</v>
+        <v>104880</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>142159</v>
+        <v>143072</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2663824611397375</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2215903036645238</v>
+        <v>0.228679869482122</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3099634836773386</v>
+        <v>0.3119552886516524</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>240</v>
@@ -3391,19 +3391,19 @@
         <v>264165</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>233850</v>
+        <v>235697</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>293810</v>
+        <v>295038</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2810826782313099</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2488257624259072</v>
+        <v>0.2507914786815576</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3126257493836588</v>
+        <v>0.3139322926236989</v>
       </c>
     </row>
     <row r="18">
@@ -3495,19 +3495,19 @@
         <v>1228487</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1170438</v>
+        <v>1173267</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1288931</v>
+        <v>1288436</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3593377519532929</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3423581389625462</v>
+        <v>0.3431858407408279</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3770181245130723</v>
+        <v>0.376873279286137</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2034</v>
@@ -3516,19 +3516,19 @@
         <v>2182757</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2127904</v>
+        <v>2122823</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2244721</v>
+        <v>2242083</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6144721098487117</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5990302815043321</v>
+        <v>0.5975998936083069</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6319156538483687</v>
+        <v>0.6311730541652181</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3192</v>
@@ -3537,19 +3537,19 @@
         <v>3411244</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3330829</v>
+        <v>3328916</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3498009</v>
+        <v>3501410</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4893478672757238</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4778121824793639</v>
+        <v>0.4775378467433681</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5017944247456239</v>
+        <v>0.5022822776352299</v>
       </c>
     </row>
     <row r="20">
@@ -3566,19 +3566,19 @@
         <v>838839</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>781921</v>
+        <v>783885</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>892238</v>
+        <v>888742</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2453639927337273</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2287153061334553</v>
+        <v>0.2292899394682602</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.260983614400284</v>
+        <v>0.2599608007363569</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>360</v>
@@ -3587,19 +3587,19 @@
         <v>393221</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>355270</v>
+        <v>355332</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>433094</v>
+        <v>430553</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.110696323220143</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1000127988553954</v>
+        <v>0.1000302758044716</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1219212451086358</v>
+        <v>0.1212057977905076</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1137</v>
@@ -3608,19 +3608,19 @@
         <v>1232059</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1165462</v>
+        <v>1166650</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1298941</v>
+        <v>1299267</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1767407018994885</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1671872545214192</v>
+        <v>0.1673575859677718</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1863348999661872</v>
+        <v>0.1863817107489382</v>
       </c>
     </row>
     <row r="21">
@@ -3637,19 +3637,19 @@
         <v>95006</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>76629</v>
+        <v>76904</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>115752</v>
+        <v>116251</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02778980812926978</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02241441112953898</v>
+        <v>0.02249487906470677</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03385782404344782</v>
+        <v>0.03400400708037123</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>67</v>
@@ -3658,19 +3658,19 @@
         <v>73860</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>57403</v>
+        <v>57467</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>94489</v>
+        <v>94196</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02079235462893718</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01615973631911042</v>
+        <v>0.01617757870328475</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02659979256456443</v>
+        <v>0.02651742281812987</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>156</v>
@@ -3679,19 +3679,19 @@
         <v>168866</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>143356</v>
+        <v>144760</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>196773</v>
+        <v>197181</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02422408007897521</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02056460679826508</v>
+        <v>0.02076597532393487</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0282274168080852</v>
+        <v>0.02828588251961032</v>
       </c>
     </row>
     <row r="22">
@@ -3708,19 +3708,19 @@
         <v>1256420</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1201035</v>
+        <v>1198835</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1312652</v>
+        <v>1318506</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.36750844718371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3513078803389987</v>
+        <v>0.3506646176598094</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3839566293100794</v>
+        <v>0.3856687237795241</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>831</v>
@@ -3729,19 +3729,19 @@
         <v>902410</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>846108</v>
+        <v>847544</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>954407</v>
+        <v>961098</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2540392123022081</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2381894109758418</v>
+        <v>0.2385936955578237</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2686769780559399</v>
+        <v>0.2705603769496137</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2008</v>
@@ -3750,19 +3750,19 @@
         <v>2158831</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2076986</v>
+        <v>2078542</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2237048</v>
+        <v>2235826</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3096873507458126</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2979466632626163</v>
+        <v>0.2981699103930324</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3209078304992916</v>
+        <v>0.3207324191882441</v>
       </c>
     </row>
     <row r="23">
@@ -4093,19 +4093,19 @@
         <v>288203</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>262412</v>
+        <v>261679</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>314508</v>
+        <v>314462</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3824942080202257</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3482652763559254</v>
+        <v>0.3472935250771451</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4174063580168438</v>
+        <v>0.4173449410786375</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>712</v>
@@ -4114,19 +4114,19 @@
         <v>807378</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>781114</v>
+        <v>781422</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>831365</v>
+        <v>831370</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8136706518908529</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7872023877528711</v>
+        <v>0.7875125093825602</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8378447953980834</v>
+        <v>0.8378494346556752</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1005</v>
@@ -4135,19 +4135,19 @@
         <v>1095580</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1055621</v>
+        <v>1054172</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1136907</v>
+        <v>1135847</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6275706086935224</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6046809930871391</v>
+        <v>0.6038511029415669</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6512435410685267</v>
+        <v>0.6506365548663626</v>
       </c>
     </row>
     <row r="5">
@@ -4164,19 +4164,19 @@
         <v>240114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>214540</v>
+        <v>215037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>263864</v>
+        <v>264311</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3186728947306778</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2847316948537172</v>
+        <v>0.285390976548467</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3501933930041413</v>
+        <v>0.3507858236757248</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -4185,19 +4185,19 @@
         <v>48673</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35347</v>
+        <v>35563</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63513</v>
+        <v>65259</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04905226874612548</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03562209962044103</v>
+        <v>0.03584046745417304</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06400823434520329</v>
+        <v>0.06576801859127544</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>297</v>
@@ -4206,19 +4206,19 @@
         <v>288787</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>257051</v>
+        <v>260515</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>318871</v>
+        <v>323199</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1654232135319489</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1472439745478764</v>
+        <v>0.1492282754913068</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1826559479667079</v>
+        <v>0.1851350450284228</v>
       </c>
     </row>
     <row r="6">
@@ -4235,19 +4235,19 @@
         <v>17338</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10384</v>
+        <v>10485</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27514</v>
+        <v>27870</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02300999935571581</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0137816217208763</v>
+        <v>0.01391511800602756</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03651607312362798</v>
+        <v>0.03698833149184536</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -4256,19 +4256,19 @@
         <v>13611</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7719</v>
+        <v>7179</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23628</v>
+        <v>22815</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01371704163165424</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007779262222128891</v>
+        <v>0.007235215383521452</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02381193783734004</v>
+        <v>0.02299286124236391</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -4277,19 +4277,19 @@
         <v>30949</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21077</v>
+        <v>21381</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43103</v>
+        <v>44491</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01772797464634771</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01207307013369427</v>
+        <v>0.01224768224284893</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0246902233576631</v>
+        <v>0.02548534241308336</v>
       </c>
     </row>
     <row r="7">
@@ -4306,19 +4306,19 @@
         <v>207828</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>180715</v>
+        <v>184858</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>231775</v>
+        <v>236492</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2758228978933808</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2398400890017343</v>
+        <v>0.2453388691294238</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3076055927629573</v>
+        <v>0.313865478235053</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>120</v>
@@ -4327,19 +4327,19 @@
         <v>122604</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>105061</v>
+        <v>103366</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>145786</v>
+        <v>144162</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1235600377313674</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1058803754986472</v>
+        <v>0.1041717908102026</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1469223655803636</v>
+        <v>0.1452859049547996</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>320</v>
@@ -4348,19 +4348,19 @@
         <v>330432</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>298959</v>
+        <v>296635</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>363509</v>
+        <v>363047</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1892782031281809</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1712496888399824</v>
+        <v>0.169918770036954</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2082252581010424</v>
+        <v>0.2079607854655888</v>
       </c>
     </row>
     <row r="8">
@@ -4452,19 +4452,19 @@
         <v>908258</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>865816</v>
+        <v>863764</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>958124</v>
+        <v>952653</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4374227938362094</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4169825569334119</v>
+        <v>0.4159942402602404</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4614385136141134</v>
+        <v>0.4588035766057921</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1046</v>
@@ -4473,19 +4473,19 @@
         <v>1092167</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1044162</v>
+        <v>1048126</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1136737</v>
+        <v>1138063</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5498821571424276</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.52571261306032</v>
+        <v>0.5277086356203211</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5723221744921221</v>
+        <v>0.5729899038815679</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1910</v>
@@ -4494,19 +4494,19 @@
         <v>2000425</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1935654</v>
+        <v>1937596</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2061804</v>
+        <v>2060672</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4924040073586447</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.47646077538888</v>
+        <v>0.4769387635401194</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5075124278027195</v>
+        <v>0.5072338889336828</v>
       </c>
     </row>
     <row r="10">
@@ -4523,19 +4523,19 @@
         <v>353511</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>317891</v>
+        <v>318994</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>389421</v>
+        <v>389927</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1702533112865559</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1530982987993868</v>
+        <v>0.1536294791162161</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1875476981905959</v>
+        <v>0.1877911068116165</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>219</v>
@@ -4544,19 +4544,19 @@
         <v>232105</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>206122</v>
+        <v>202548</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>264300</v>
+        <v>262863</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1168598849900372</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1037778172033894</v>
+        <v>0.1019783493906942</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1330693325017355</v>
+        <v>0.1323457343222164</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>551</v>
@@ -4565,19 +4565,19 @@
         <v>585617</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>539969</v>
+        <v>541547</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>627419</v>
+        <v>635471</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1441493455019569</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1329131680258658</v>
+        <v>0.1333017275534165</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1544390175536597</v>
+        <v>0.1564211342705453</v>
       </c>
     </row>
     <row r="11">
@@ -4594,19 +4594,19 @@
         <v>53216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40609</v>
+        <v>39151</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>71662</v>
+        <v>69956</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02562912972081841</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01955733508360495</v>
+        <v>0.0188553406218566</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03451282291932022</v>
+        <v>0.03369141833465183</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -4615,19 +4615,19 @@
         <v>41752</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29805</v>
+        <v>30149</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57813</v>
+        <v>56652</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0210211900215358</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01500594327779869</v>
+        <v>0.01517925385159912</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0291076848841668</v>
+        <v>0.02852321486031201</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>91</v>
@@ -4636,19 +4636,19 @@
         <v>94968</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>76881</v>
+        <v>78270</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>116405</v>
+        <v>116043</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02337631493460171</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01892416287303532</v>
+        <v>0.01926609411558384</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02865297002288828</v>
+        <v>0.02856396828048773</v>
       </c>
     </row>
     <row r="12">
@@ -4665,19 +4665,19 @@
         <v>761400</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>712294</v>
+        <v>718509</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>801699</v>
+        <v>804990</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3666947651564164</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3430450178120098</v>
+        <v>0.3460386134314586</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3861034472560415</v>
+        <v>0.3876880744732086</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>600</v>
@@ -4686,19 +4686,19 @@
         <v>620160</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>579295</v>
+        <v>573413</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>666643</v>
+        <v>660420</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3122367678459994</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2916623725027382</v>
+        <v>0.2887010789954597</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3356399816149068</v>
+        <v>0.3325067827058666</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1306</v>
@@ -4707,19 +4707,19 @@
         <v>1381559</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1322798</v>
+        <v>1324798</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1444969</v>
+        <v>1452374</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3400703322047967</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3256063388289748</v>
+        <v>0.3260986145897034</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3556786102641962</v>
+        <v>0.3575014801369922</v>
       </c>
     </row>
     <row r="13">
@@ -4811,19 +4811,19 @@
         <v>306226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>282664</v>
+        <v>281454</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>332947</v>
+        <v>329688</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5610447238574915</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5178758547353904</v>
+        <v>0.5156583490099549</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6100011720742757</v>
+        <v>0.6040292927500072</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>309</v>
@@ -4832,19 +4832,19 @@
         <v>321854</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>298429</v>
+        <v>299089</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>345927</v>
+        <v>345288</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.587097387128994</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5443671966784177</v>
+        <v>0.5455703166939927</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6310079617023062</v>
+        <v>0.6298431509922794</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>596</v>
@@ -4853,19 +4853,19 @@
         <v>628080</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>591229</v>
+        <v>596187</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>658685</v>
+        <v>659997</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5740996127988526</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5404155392055281</v>
+        <v>0.5449472075774774</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6020736280734121</v>
+        <v>0.6032726790095757</v>
       </c>
     </row>
     <row r="15">
@@ -4882,19 +4882,19 @@
         <v>100294</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>82576</v>
+        <v>82318</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>121032</v>
+        <v>121974</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1837514825956894</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1512891037179964</v>
+        <v>0.1508160381848068</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.221746671299283</v>
+        <v>0.2234721417491801</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>98</v>
@@ -4903,19 +4903,19 @@
         <v>104362</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>87458</v>
+        <v>86249</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>124494</v>
+        <v>124634</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1903684797263603</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1595329296855944</v>
+        <v>0.157327320730741</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2270909960369442</v>
+        <v>0.2273463796782565</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>187</v>
@@ -4924,19 +4924,19 @@
         <v>204657</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>180584</v>
+        <v>178881</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>235376</v>
+        <v>233502</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1870672343008405</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1650640101044123</v>
+        <v>0.1635073781954695</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2151467109093367</v>
+        <v>0.2134331963189272</v>
       </c>
     </row>
     <row r="16">
@@ -4953,19 +4953,19 @@
         <v>20036</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12266</v>
+        <v>11942</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29985</v>
+        <v>30323</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03670775631007572</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02247260989944876</v>
+        <v>0.02187908041965372</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05493673903208934</v>
+        <v>0.05555485112361411</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -4974,19 +4974,19 @@
         <v>18097</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10637</v>
+        <v>11255</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27675</v>
+        <v>28693</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03301146859824301</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01940256422887589</v>
+        <v>0.02053017960933795</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05048301023469305</v>
+        <v>0.05233941090510333</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -4995,19 +4995,19 @@
         <v>38133</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28266</v>
+        <v>26652</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53606</v>
+        <v>50994</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0348555608139601</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02583633712112622</v>
+        <v>0.02436148530138794</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04899889000094044</v>
+        <v>0.04661145078764913</v>
       </c>
     </row>
     <row r="17">
@@ -5024,19 +5024,19 @@
         <v>119258</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97418</v>
+        <v>99943</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>137533</v>
+        <v>140683</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2184960372367434</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1784811920985907</v>
+        <v>0.1831081747127383</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.251978050470873</v>
+        <v>0.2577483999021534</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>100</v>
@@ -5045,19 +5045,19 @@
         <v>103899</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>86973</v>
+        <v>83963</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>124978</v>
+        <v>122669</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1895226645464028</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.158648086737099</v>
+        <v>0.1531583501903604</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2279738210450949</v>
+        <v>0.2237619132201131</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>205</v>
@@ -5066,19 +5066,19 @@
         <v>223157</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>197519</v>
+        <v>197603</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>249618</v>
+        <v>249452</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2039775920863468</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1805430691127075</v>
+        <v>0.1806200043357599</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.228164754340203</v>
+        <v>0.2280122057450975</v>
       </c>
     </row>
     <row r="18">
@@ -5170,19 +5170,19 @@
         <v>1502687</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1444241</v>
+        <v>1446556</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1556030</v>
+        <v>1561189</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.445150690201041</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4278368551903307</v>
+        <v>0.4285228236799573</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4609528463102904</v>
+        <v>0.4624812793018465</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2067</v>
@@ -5191,19 +5191,19 @@
         <v>2221399</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2167325</v>
+        <v>2162869</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2280063</v>
+        <v>2276089</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6298870233938059</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6145542279704265</v>
+        <v>0.6132906744188653</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6465215809945545</v>
+        <v>0.6453945988793328</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3511</v>
@@ -5212,19 +5212,19 @@
         <v>3724085</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3632362</v>
+        <v>3635509</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3806218</v>
+        <v>3803347</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5395393027629081</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5262505361290577</v>
+        <v>0.526706491658642</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5514384816238124</v>
+        <v>0.5510226212279353</v>
       </c>
     </row>
     <row r="20">
@@ -5241,19 +5241,19 @@
         <v>693920</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>645827</v>
+        <v>645380</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>743113</v>
+        <v>743491</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2055644033567337</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1913175491484584</v>
+        <v>0.1911851309719704</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2201370970145801</v>
+        <v>0.2202491026670775</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>363</v>
@@ -5262,19 +5262,19 @@
         <v>385140</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>349619</v>
+        <v>345423</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>428075</v>
+        <v>421348</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1092082246873889</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09913589514062984</v>
+        <v>0.09794626446716953</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.121382571091102</v>
+        <v>0.1194751370251938</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1035</v>
@@ -5283,19 +5283,19 @@
         <v>1079060</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1016037</v>
+        <v>1015150</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1133824</v>
+        <v>1138864</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1563324744817969</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1472017717938539</v>
+        <v>0.147073181790882</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1642665808313055</v>
+        <v>0.1649967980324414</v>
       </c>
     </row>
     <row r="21">
@@ -5312,19 +5312,19 @@
         <v>90589</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>74224</v>
+        <v>74851</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>112056</v>
+        <v>112877</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02683582104112083</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02198800574671756</v>
+        <v>0.02217373341484922</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03319517969162471</v>
+        <v>0.03343827959103291</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>71</v>
@@ -5333,19 +5333,19 @@
         <v>73460</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>58037</v>
+        <v>57670</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>92577</v>
+        <v>90489</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02082995195445927</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01645657882043179</v>
+        <v>0.01635267366395478</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02625072295564561</v>
+        <v>0.02565849838565883</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>157</v>
@@ -5354,19 +5354,19 @@
         <v>164049</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>141805</v>
+        <v>140419</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>191031</v>
+        <v>190655</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02376720080534582</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02054446222551377</v>
+        <v>0.02034369187522245</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02767630731295132</v>
+        <v>0.02762171353531339</v>
       </c>
     </row>
     <row r="22">
@@ -5383,19 +5383,19 @@
         <v>1088485</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1038233</v>
+        <v>1034913</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1144694</v>
+        <v>1146305</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3224490854011045</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3075625676028573</v>
+        <v>0.3065789258727771</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3391001663629836</v>
+        <v>0.3395775531458229</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>820</v>
@@ -5404,19 +5404,19 @@
         <v>846663</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>797911</v>
+        <v>798378</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>896614</v>
+        <v>899097</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2400747999643459</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2262509841755854</v>
+        <v>0.2263835230483527</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2542387601380957</v>
+        <v>0.2549426443474058</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1831</v>
@@ -5425,19 +5425,19 @@
         <v>1935148</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1866517</v>
+        <v>1860179</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2015039</v>
+        <v>2008984</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2803610219499492</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2704178659159465</v>
+        <v>0.2694996827073424</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2919355304285806</v>
+        <v>0.2910583148771618</v>
       </c>
     </row>
     <row r="23">
